--- a/3_Component_Results/EXPORT/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,19 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-0.3267545089723285</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-1.381391090384795</v>
       </c>
       <c r="D2">
-        <v>-0.9147165318737369</v>
+        <v>1.261504788818342</v>
       </c>
       <c r="E2">
-        <v>1.287087243898526</v>
+        <v>1.41980735745068</v>
       </c>
       <c r="F2">
-        <v>4.035302752804071</v>
+        <v>9.10735023142162</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,25 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.176221320692079</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1327201135521534</v>
       </c>
       <c r="D3">
-        <v>4.065100954569118</v>
+        <v>9.137148433186667</v>
       </c>
       <c r="E3">
-        <v>3.438329327388928</v>
+        <v>11.12578741154633</v>
       </c>
       <c r="F3">
-        <v>4.145515465675814</v>
+        <v>2.054050900026041</v>
       </c>
       <c r="G3">
-        <v>0.2764530924276727</v>
+        <v>-2.583908390362894</v>
       </c>
       <c r="H3">
-        <v>-2.919204604723973</v>
+        <v>-1.69747595024657</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,19 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5.072047478617549</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>7.687458084157399</v>
       </c>
       <c r="D4">
-        <v>1.771909419916867</v>
+        <v>-0.3195551457329056</v>
       </c>
       <c r="E4">
-        <v>-1.08513392471248</v>
+        <v>-3.945495407503046</v>
       </c>
       <c r="F4">
-        <v>-3.996635313038936</v>
+        <v>-2.774906658561533</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,25 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-2.091464565649773</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-2.860361482790566</v>
       </c>
       <c r="D5">
-        <v>-2.964236527159898</v>
+        <v>-1.742507872682495</v>
       </c>
       <c r="E5">
-        <v>-1.356270694064719</v>
+        <v>-1.942182634720908</v>
       </c>
       <c r="F5">
-        <v>-3.17184124079624</v>
+        <v>-7.082866626106537</v>
       </c>
       <c r="G5">
-        <v>-1.352322844885066</v>
+        <v>-1.207897917465559</v>
       </c>
       <c r="H5">
-        <v>-0.685712814395544</v>
+        <v>-0.716788366044284</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,19 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.221728654477403</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.5859119406561888</v>
       </c>
       <c r="D6">
-        <v>-2.501048740912395</v>
+        <v>-6.412074126222691</v>
       </c>
       <c r="E6">
-        <v>-1.471556584906722</v>
+        <v>-1.327131657487215</v>
       </c>
       <c r="F6">
-        <v>-1.009198400323584</v>
+        <v>-1.040273951972324</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,25 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-3.911025385310296</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.1444249274195069</v>
       </c>
       <c r="D7">
-        <v>-0.609198400323564</v>
+        <v>-0.640273951972304</v>
       </c>
       <c r="E7">
-        <v>0.5064230971359787</v>
+        <v>-0.8163288124294192</v>
       </c>
       <c r="F7">
-        <v>-0.5975989385105009</v>
+        <v>-1.055574095503602</v>
       </c>
       <c r="G7">
-        <v>0.1161337886428699</v>
+        <v>-0.7305900175239801</v>
       </c>
       <c r="H7">
-        <v>2.099999999999966</v>
+        <v>3.387154252625351</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,19 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-0.03107555164873999</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-1.322751909565398</v>
       </c>
       <c r="D8">
-        <v>-1.097598938510472</v>
+        <v>-1.555574095503573</v>
       </c>
       <c r="E8">
-        <v>-0.2838662113571639</v>
+        <v>-1.130590017524014</v>
       </c>
       <c r="F8">
-        <v>1.800000000000054</v>
+        <v>3.087154252625439</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,25 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-0.457975156993101</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-0.8467238061668501</v>
       </c>
       <c r="D9">
-        <v>1.827904537059553</v>
+        <v>3.115058789684938</v>
       </c>
       <c r="E9">
-        <v>1.63134579859603</v>
+        <v>-0.094982760252875</v>
       </c>
       <c r="F9">
-        <v>1.292904416644248</v>
+        <v>-1.559991797019691</v>
       </c>
       <c r="G9">
-        <v>1.816345072584951</v>
+        <v>0.4693523401675459</v>
       </c>
       <c r="H9">
-        <v>2.730276850121598</v>
+        <v>4.335609787148272</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,19 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.287154252625385</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-1.726328558848905</v>
       </c>
       <c r="D10">
-        <v>0.2769858177050821</v>
+        <v>-2.575910395958857</v>
       </c>
       <c r="E10">
-        <v>1.299999999999997</v>
+        <v>-0.0469927324174082</v>
       </c>
       <c r="F10">
-        <v>2.213507951412055</v>
+        <v>3.818840888438729</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,25 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>-2.852896213663939</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-1.346992732417406</v>
       </c>
       <c r="D11">
-        <v>1.513507951412009</v>
+        <v>3.118840888438683</v>
       </c>
       <c r="E11">
-        <v>0.3991794720961934</v>
+        <v>2.703774865812904</v>
       </c>
       <c r="F11">
-        <v>-0.6925366684240539</v>
+        <v>-1.329268110997489</v>
       </c>
       <c r="G11">
-        <v>0.1995237946205319</v>
+        <v>1.122467699931292</v>
       </c>
       <c r="H11">
-        <v>-0.500538204420323</v>
+        <v>-1.263707446020148</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,19 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.605332937026674</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.30459539371671</v>
       </c>
       <c r="D12">
-        <v>-0.7934314762081551</v>
+        <v>-1.43016291878159</v>
       </c>
       <c r="E12">
-        <v>0.299846443855714</v>
+        <v>1.222790349166474</v>
       </c>
       <c r="F12">
-        <v>-0.4006547103871021</v>
+        <v>-1.163823951986927</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,25 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-0.6367314425734349</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.9229439053107598</v>
       </c>
       <c r="D13">
-        <v>-0.7007665621080013</v>
+        <v>-1.463935803707826</v>
       </c>
       <c r="E13">
-        <v>-0.16550611428454</v>
+        <v>1.135800823836746</v>
       </c>
       <c r="F13">
-        <v>0.3180100518256239</v>
+        <v>0.2460865825587319</v>
       </c>
       <c r="G13">
-        <v>0.1464080301805379</v>
+        <v>-0.4469970844674691</v>
       </c>
       <c r="H13">
-        <v>1.196440380653428</v>
+        <v>0.6021172494375269</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,19 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>-0.763169241599825</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.301306938121286</v>
       </c>
       <c r="D14">
-        <v>0.404335469172906</v>
+        <v>0.332411999906014</v>
       </c>
       <c r="E14">
-        <v>0.2302431442816011</v>
+        <v>-0.363161970366406</v>
       </c>
       <c r="F14">
-        <v>1.220068063357971</v>
+        <v>0.6257449321420698</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -896,25 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.07192346926689197</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.593405114648007</v>
       </c>
       <c r="D15">
-        <v>0.9558310556897003</v>
+        <v>0.3615079244737989</v>
       </c>
       <c r="E15">
-        <v>0.3765403899982118</v>
+        <v>0.5676521307573097</v>
       </c>
       <c r="F15">
-        <v>-0.09088664983752914</v>
+        <v>-0.4101892054037541</v>
       </c>
       <c r="G15">
-        <v>0.1972203987010199</v>
+        <v>1.272006529183258</v>
       </c>
       <c r="H15">
-        <v>0.9967701041568229</v>
+        <v>2.130826579980933</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -922,19 +922,19 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-0.5943231312159014</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.1911117407590979</v>
       </c>
       <c r="D16">
-        <v>-0.226517947415203</v>
+        <v>-0.545820502981428</v>
       </c>
       <c r="E16">
-        <v>0.05771245426886584</v>
+        <v>1.132498584751104</v>
       </c>
       <c r="F16">
-        <v>0.9080513762771008</v>
+        <v>2.042107852101211</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -942,25 +942,25 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.319302555566225</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.074786130482238</v>
       </c>
       <c r="D17">
-        <v>0.9695052039258198</v>
+        <v>2.10356167974993</v>
       </c>
       <c r="E17">
-        <v>0.10171406359035</v>
+        <v>0.3923208492579415</v>
       </c>
       <c r="F17">
-        <v>0.3332443251448041</v>
+        <v>0.03830692153388782</v>
       </c>
       <c r="G17">
-        <v>0.01157116109671108</v>
+        <v>1.59724387475427</v>
       </c>
       <c r="H17">
-        <v>0.1250003259460468</v>
+        <v>-0.542996656587406</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -968,31 +968,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.13405647582411</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.2906067856675916</v>
       </c>
       <c r="D18">
-        <v>0.4076895197214871</v>
+        <v>0.1127521161105709</v>
       </c>
       <c r="E18">
-        <v>0.07531871858097294</v>
+        <v>1.660991432238532</v>
       </c>
       <c r="F18">
-        <v>0.1523430545310309</v>
+        <v>-0.5156539280024219</v>
       </c>
       <c r="G18">
-        <v>-0.07387636833051592</v>
+        <v>-0.1725649808533369</v>
       </c>
       <c r="H18">
-        <v>-0.768545702376954</v>
+        <v>0.02392643965407593</v>
       </c>
       <c r="I18">
-        <v>-0.3158498098986089</v>
+        <v>-0.6410204229136129</v>
       </c>
       <c r="J18">
-        <v>-0.6111247519860259</v>
+        <v>-1.725647314577074</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1000,25 +1000,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-0.2949374036109162</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.585672713657559</v>
       </c>
       <c r="D19">
-        <v>0.1687889828682498</v>
+        <v>-0.499207999665203</v>
       </c>
       <c r="E19">
-        <v>-0.09127603311092902</v>
+        <v>-0.18996464563375</v>
       </c>
       <c r="F19">
-        <v>-0.7369872535538631</v>
+        <v>0.05548488847716682</v>
       </c>
       <c r="G19">
-        <v>-0.2348337766646158</v>
+        <v>-0.5600043896796199</v>
       </c>
       <c r="H19">
-        <v>-0.522456305393959</v>
+        <v>-1.636978867985007</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1026,31 +1026,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>-0.6679969825334529</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-0.09868861252282102</v>
       </c>
       <c r="D20">
-        <v>-0.75381058618521</v>
+        <v>0.03866155584581987</v>
       </c>
       <c r="E20">
-        <v>-0.2764290319197469</v>
+        <v>-0.6015996449347509</v>
       </c>
       <c r="F20">
-        <v>-0.5640481012880521</v>
+        <v>-1.6785706638791</v>
       </c>
       <c r="G20">
-        <v>-0.244696637668482</v>
+        <v>2.099109144099572</v>
       </c>
       <c r="H20">
-        <v>0.6651417239263964</v>
+        <v>0.3768551991671956</v>
       </c>
       <c r="I20">
-        <v>-0.3226405371569561</v>
+        <v>1.958424945524735</v>
       </c>
       <c r="J20">
-        <v>0.358428411515507</v>
+        <v>0.4058371456671066</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1058,25 +1058,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.7924721420310299</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-0.3251706130150041</v>
       </c>
       <c r="D21">
-        <v>-0.538694030151504</v>
+        <v>-1.653216592742552</v>
       </c>
       <c r="E21">
-        <v>-0.235545922659625</v>
+        <v>2.108259859108429</v>
       </c>
       <c r="F21">
-        <v>0.6570476937454113</v>
+        <v>0.3687611689862105</v>
       </c>
       <c r="G21">
-        <v>-0.330733214842567</v>
+        <v>1.950332267839124</v>
       </c>
       <c r="H21">
-        <v>0.3503370832502131</v>
+        <v>0.3977458174018127</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1084,31 +1084,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-1.114522562591048</v>
       </c>
       <c r="C22">
-        <v>0.2342705106256069</v>
+        <v>2.578076292393661</v>
       </c>
       <c r="D22">
-        <v>0.8967998927960112</v>
+        <v>0.6085133680368104</v>
       </c>
       <c r="E22">
-        <v>-0.27325787462199</v>
+        <v>2.007807608059701</v>
       </c>
       <c r="F22">
-        <v>0.4078312710066461</v>
+        <v>0.4552400051582457</v>
       </c>
       <c r="G22">
-        <v>-0.6051543336597971</v>
+        <v>0.1075696162591699</v>
       </c>
       <c r="H22">
-        <v>2.007780377252027</v>
+        <v>2.454548595455236</v>
       </c>
       <c r="I22">
-        <v>0.193014908494149</v>
+        <v>0.06585219932875908</v>
       </c>
       <c r="J22">
-        <v>-0.04455212622471483</v>
+        <v>1.341363851463769</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1116,28 +1116,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2.343805781768054</v>
       </c>
       <c r="C23">
-        <v>0.8240993594995563</v>
+        <v>0.5358128347403555</v>
       </c>
       <c r="D23">
-        <v>-0.328885575707403</v>
+        <v>1.952179906974288</v>
       </c>
       <c r="E23">
-        <v>0.352307872837119</v>
+        <v>0.3997166069887186</v>
       </c>
       <c r="F23">
-        <v>-0.659767119469777</v>
+        <v>0.05295683044919008</v>
       </c>
       <c r="G23">
-        <v>1.952789572872655</v>
+        <v>2.399557791075864</v>
       </c>
       <c r="H23">
-        <v>0.138129559848295</v>
+        <v>0.01096685068290504</v>
       </c>
       <c r="I23">
-        <v>-0.09933175094973001</v>
+        <v>1.286584226738754</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1145,25 +1145,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>-0.2882865247592008</v>
       </c>
       <c r="C24">
-        <v>-0.328411988598631</v>
+        <v>1.95265349408306</v>
       </c>
       <c r="D24">
-        <v>0.352782374001922</v>
+        <v>0.4001911081535217</v>
       </c>
       <c r="E24">
-        <v>-0.658765927605472</v>
+        <v>0.053958022313495</v>
       </c>
       <c r="F24">
-        <v>1.953374636366456</v>
+        <v>2.400142854569665</v>
       </c>
       <c r="G24">
-        <v>0.1387157448354659</v>
+        <v>0.01155303567007593</v>
       </c>
       <c r="H24">
-        <v>-0.09874444382710101</v>
+        <v>1.287171533861382</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1171,28 +1171,28 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2.281065482681691</v>
       </c>
       <c r="C25">
-        <v>0.6827714915478571</v>
+        <v>0.7301802256994567</v>
       </c>
       <c r="D25">
-        <v>-0.6610209789783281</v>
+        <v>0.05170297094063891</v>
       </c>
       <c r="E25">
-        <v>1.952193530242846</v>
+        <v>2.398961748446055</v>
       </c>
       <c r="F25">
-        <v>0.03753236769954071</v>
+        <v>-0.08963034146584925</v>
       </c>
       <c r="G25">
-        <v>-0.1999299662819423</v>
+        <v>1.185986011406541</v>
       </c>
       <c r="H25">
-        <v>2.310975989374768</v>
+        <v>3.852780295134727</v>
       </c>
       <c r="I25">
-        <v>25.15278915258006</v>
+        <v>21.08909300779241</v>
       </c>
       <c r="J25">
         <v>-11.6725873062167</v>
@@ -1206,25 +1206,25 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.04740873415159963</v>
       </c>
       <c r="C26">
-        <v>-0.5127239499189671</v>
+        <v>0.2</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>2.446768218203209</v>
       </c>
       <c r="E26">
-        <v>0.085210845237782</v>
+        <v>-0.04195186392760797</v>
       </c>
       <c r="F26">
-        <v>-0.1523798554303679</v>
+        <v>1.233536122258116</v>
       </c>
       <c r="G26">
-        <v>2.358195694240041</v>
+        <v>3.9</v>
       </c>
       <c r="H26">
-        <v>25.2</v>
+        <v>21.13630385521235</v>
       </c>
       <c r="I26">
         <v>-11.62550598425463</v>
@@ -1238,22 +1238,22 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.712723949918967</v>
       </c>
       <c r="C27">
-        <v>2.117970332073918</v>
+        <v>2.564738550277127</v>
       </c>
       <c r="D27">
-        <v>0.03916553232892284</v>
+        <v>-0.08799717683646713</v>
       </c>
       <c r="E27">
-        <v>-0.1982936697970812</v>
+        <v>1.187622307891402</v>
       </c>
       <c r="F27">
-        <v>2.31305377299239</v>
+        <v>3.854858078752349</v>
       </c>
       <c r="G27">
-        <v>25.15462703452582</v>
+        <v>21.09093088973817</v>
       </c>
       <c r="H27">
         <v>-11.67074591368022</v>
@@ -1267,19 +1267,19 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.446768218203209</v>
       </c>
       <c r="C28">
-        <v>0.1852108452377821</v>
+        <v>0.05804813607239212</v>
       </c>
       <c r="D28">
-        <v>-0.1523798554303679</v>
+        <v>1.233536122258116</v>
       </c>
       <c r="E28">
-        <v>2.358195694240041</v>
+        <v>3.9</v>
       </c>
       <c r="F28">
-        <v>25.2</v>
+        <v>21.13630385521235</v>
       </c>
       <c r="G28">
         <v>-11.62550598425463</v>
@@ -1293,16 +1293,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>-0.12716270916539</v>
       </c>
       <c r="C29">
-        <v>-0.114726910556882</v>
+        <v>1.271189067131602</v>
       </c>
       <c r="D29">
-        <v>2.35272417361027</v>
+        <v>3.894528479370229</v>
       </c>
       <c r="E29">
-        <v>25.19474495559432</v>
+        <v>21.13104881080667</v>
       </c>
       <c r="F29">
         <v>-11.63038009738063</v>
@@ -1328,13 +1328,13 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1.385915977688484</v>
       </c>
       <c r="C30">
-        <v>2.351166413665936</v>
+        <v>3.892970719425895</v>
       </c>
       <c r="D30">
-        <v>25.19394751228914</v>
+        <v>21.13025136750149</v>
       </c>
       <c r="E30">
         <v>-11.63118000061852</v>
@@ -1360,10 +1360,10 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1.541804305759959</v>
       </c>
       <c r="C31">
-        <v>22.03815382151007</v>
+        <v>17.97445767672242</v>
       </c>
       <c r="D31">
         <v>-9.449071852767363</v>
@@ -1389,7 +1389,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>-4.063696144787649</v>
       </c>
       <c r="C32">
         <v>0.6744940157453705</v>

--- a/3_Component_Results/EXPORT/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -1195,10 +1195,10 @@
         <v>21.08909300779241</v>
       </c>
       <c r="J25">
-        <v>-11.6725873062167</v>
+        <v>-17.38961135916213</v>
       </c>
       <c r="K25">
-        <v>-2.060139939808877</v>
+        <v>-3.79150938822805</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1227,10 +1227,10 @@
         <v>21.13630385521235</v>
       </c>
       <c r="I26">
-        <v>-11.62550598425463</v>
+        <v>-17.34253003720006</v>
       </c>
       <c r="J26">
-        <v>-2.013188392915293</v>
+        <v>-3.744557841334466</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1256,10 +1256,10 @@
         <v>21.09093088973817</v>
       </c>
       <c r="H27">
-        <v>-11.67074591368022</v>
+        <v>-17.38776996662565</v>
       </c>
       <c r="I27">
-        <v>-2.058295034783697</v>
+        <v>-3.78966448320287</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1282,10 +1282,10 @@
         <v>21.13630385521235</v>
       </c>
       <c r="G28">
-        <v>-11.62550598425463</v>
+        <v>-17.34253003720006</v>
       </c>
       <c r="H28">
-        <v>-2.013188392915293</v>
+        <v>-3.744557841334466</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1305,22 +1305,22 @@
         <v>21.13104881080667</v>
       </c>
       <c r="F29">
-        <v>-11.63038009738063</v>
+        <v>-17.34740415032606</v>
       </c>
       <c r="G29">
-        <v>-2.017680404141586</v>
+        <v>-3.749049852560759</v>
       </c>
       <c r="H29">
-        <v>-1.050312380578106</v>
+        <v>-1.092443334187166</v>
       </c>
       <c r="I29">
-        <v>-0.3308622951334006</v>
+        <v>0.2166319823593028</v>
       </c>
       <c r="J29">
-        <v>-0.6938878637913461</v>
+        <v>1.738460323404823</v>
       </c>
       <c r="K29">
-        <v>0.3887299933722943</v>
+        <v>-4.026811231704187</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1337,22 +1337,22 @@
         <v>21.13025136750149</v>
       </c>
       <c r="E30">
-        <v>-11.63118000061852</v>
+        <v>-17.34820405356395</v>
       </c>
       <c r="F30">
-        <v>-2.018482768855349</v>
+        <v>-3.749852217274523</v>
       </c>
       <c r="G30">
-        <v>-1.049409394980614</v>
+        <v>-1.091540348589674</v>
       </c>
       <c r="H30">
-        <v>-0.330986145366936</v>
+        <v>0.2165081321257674</v>
       </c>
       <c r="I30">
-        <v>-0.6940121280330942</v>
+        <v>1.738336059163075</v>
       </c>
       <c r="J30">
-        <v>0.3886053148973474</v>
+        <v>-4.026935910179134</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1366,22 +1366,22 @@
         <v>17.97445767672242</v>
       </c>
       <c r="D31">
-        <v>-9.449071852767363</v>
+        <v>-15.16609590571279</v>
       </c>
       <c r="E31">
-        <v>-1.198176946132889</v>
+        <v>-2.929546394552062</v>
       </c>
       <c r="F31">
-        <v>-0.9276300133821993</v>
+        <v>-0.9697609669912592</v>
       </c>
       <c r="G31">
-        <v>-0.3298787035399191</v>
+        <v>0.2176155739527843</v>
       </c>
       <c r="H31">
-        <v>-0.6929009950814446</v>
+        <v>1.739447192114724</v>
       </c>
       <c r="I31">
-        <v>0.3897201408765198</v>
+        <v>-4.025821084199961</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1392,22 +1392,22 @@
         <v>-4.063696144787649</v>
       </c>
       <c r="C32">
-        <v>0.6744940157453705</v>
+        <v>-5.042530037200061</v>
       </c>
       <c r="D32">
-        <v>7.586811607084707</v>
+        <v>5.855442158665534</v>
       </c>
       <c r="E32">
-        <v>2.793090996602123</v>
+        <v>2.750960042993063</v>
       </c>
       <c r="F32">
-        <v>0.712714803589267</v>
+        <v>1.26020908108197</v>
       </c>
       <c r="G32">
-        <v>-0.650779288666709</v>
+        <v>1.78156889852946</v>
       </c>
       <c r="H32">
-        <v>0.431368481475576</v>
+        <v>-3.984172743600905</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-5.717024052945431</v>
       </c>
       <c r="C33">
-        <v>2.824610837639824</v>
+        <v>1.09324138922065</v>
       </c>
       <c r="D33">
-        <v>1.674152360774485</v>
+        <v>1.632021407165425</v>
       </c>
       <c r="E33">
-        <v>1.094277305864992</v>
+        <v>1.641771583357695</v>
       </c>
       <c r="F33">
-        <v>0.2322374638318649</v>
+        <v>2.664585651028034</v>
       </c>
       <c r="G33">
-        <v>0.8527531460565001</v>
+        <v>-3.562788079019981</v>
       </c>
       <c r="H33">
-        <v>2.890687057815896</v>
+        <v>2.992524635168522</v>
       </c>
       <c r="I33">
-        <v>-0.3068815423038558</v>
+        <v>0.5244980819872467</v>
       </c>
       <c r="J33">
-        <v>0.6261147377316547</v>
+        <v>-1.226968798656231</v>
       </c>
       <c r="K33">
-        <v>1.181514297877882</v>
+        <v>1.712812639041644</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>-1.731369448419173</v>
       </c>
       <c r="C34">
-        <v>-1.742566351204943</v>
+        <v>-1.784697304814003</v>
       </c>
       <c r="D34">
-        <v>1.586365324131009</v>
+        <v>2.133859601623712</v>
       </c>
       <c r="E34">
-        <v>1.512074708838284</v>
+        <v>3.944422896034453</v>
       </c>
       <c r="F34">
-        <v>1.527289263088463</v>
+        <v>-2.888251961988018</v>
       </c>
       <c r="G34">
-        <v>3.267814509022983</v>
+        <v>3.369652086375609</v>
       </c>
       <c r="H34">
-        <v>-0.1283345264010052</v>
+        <v>0.7030450978900973</v>
       </c>
       <c r="I34">
-        <v>0.6828025911685245</v>
+        <v>-1.170280945219361</v>
       </c>
       <c r="J34">
-        <v>1.238091539485794</v>
+        <v>1.769389880649555</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.04213095360905994</v>
       </c>
       <c r="C35">
-        <v>0.5013163309204449</v>
+        <v>1.048810608413148</v>
       </c>
       <c r="D35">
-        <v>1.002452882804093</v>
+        <v>3.434801070000262</v>
       </c>
       <c r="E35">
-        <v>1.430130133537318</v>
+        <v>-2.985411091539163</v>
       </c>
       <c r="F35">
-        <v>3.26148320853477</v>
+        <v>3.363320785887396</v>
       </c>
       <c r="G35">
-        <v>-0.1302781064379133</v>
+        <v>0.7011015178531892</v>
       </c>
       <c r="H35">
-        <v>0.737737614810257</v>
+        <v>-1.115345921577628</v>
       </c>
       <c r="I35">
-        <v>1.236818389370754</v>
+        <v>1.768116730534516</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.5474942774927034</v>
       </c>
       <c r="C36">
-        <v>1.162300344776952</v>
+        <v>3.594648531973121</v>
       </c>
       <c r="D36">
-        <v>1.517870115912146</v>
+        <v>-2.897671109164335</v>
       </c>
       <c r="E36">
-        <v>3.284793394538326</v>
+        <v>3.386630971890952</v>
       </c>
       <c r="F36">
-        <v>-0.1282881753469667</v>
+        <v>0.7030914489441358</v>
       </c>
       <c r="G36">
-        <v>0.7402108933029581</v>
+        <v>-1.112872643084927</v>
       </c>
       <c r="H36">
-        <v>1.2383476981244</v>
+        <v>1.769646039288162</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>2.432348187196169</v>
       </c>
       <c r="C37">
-        <v>1.677675863286467</v>
+        <v>-2.737865361790014</v>
       </c>
       <c r="D37">
-        <v>4.083903729094374</v>
+        <v>4.185741306446999</v>
       </c>
       <c r="E37">
-        <v>0.462530115854989</v>
+        <v>1.293909740146092</v>
       </c>
       <c r="F37">
-        <v>0.7657083424071658</v>
+        <v>-1.08737519398072</v>
       </c>
       <c r="G37">
-        <v>1.27300025411995</v>
+        <v>1.804298595283711</v>
       </c>
       <c r="H37">
-        <v>1.484087612790006</v>
+        <v>0.4244738359701329</v>
       </c>
       <c r="I37">
-        <v>0.8971486656637921</v>
+        <v>1.930305569530376</v>
       </c>
       <c r="J37">
-        <v>0.4813768294176129</v>
+        <v>1.603972340061787</v>
       </c>
       <c r="K37">
-        <v>1.871909326827136</v>
+        <v>2.442460839738445</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-4.415541225076481</v>
       </c>
       <c r="C38">
-        <v>2.847299570735771</v>
+        <v>2.949137148088397</v>
       </c>
       <c r="D38">
-        <v>2.479279834401851</v>
+        <v>3.310659458692954</v>
       </c>
       <c r="E38">
-        <v>2.62973595200441</v>
+        <v>0.7766524156165242</v>
       </c>
       <c r="F38">
-        <v>2.425977045917961</v>
+        <v>2.957275387081722</v>
       </c>
       <c r="G38">
-        <v>1.928106740174784</v>
+        <v>0.8684929633549106</v>
       </c>
       <c r="H38">
-        <v>0.8957059677690893</v>
+        <v>1.928862871635673</v>
       </c>
       <c r="I38">
-        <v>0.4799297448736582</v>
+        <v>1.602525255517833</v>
       </c>
       <c r="J38">
-        <v>1.870457853409519</v>
+        <v>2.441009366320828</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.1018375773526259</v>
       </c>
       <c r="C39">
-        <v>0.4010137864967049</v>
+        <v>1.232393410787807</v>
       </c>
       <c r="D39">
-        <v>2.030429610722039</v>
+        <v>0.1773460743341531</v>
       </c>
       <c r="E39">
-        <v>1.676718858831848</v>
+        <v>2.208017199995609</v>
       </c>
       <c r="F39">
-        <v>1.653172055265558</v>
+        <v>0.5935582784456845</v>
       </c>
       <c r="G39">
-        <v>0.9013619300199309</v>
+        <v>1.934518833886514</v>
       </c>
       <c r="H39">
-        <v>0.4856026675655301</v>
+        <v>1.608198178209705</v>
       </c>
       <c r="I39">
-        <v>1.876147743127106</v>
+        <v>2.446699256038415</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.8313796242911025</v>
       </c>
       <c r="C40">
-        <v>1.872143962361037</v>
+        <v>0.01906042597315105</v>
       </c>
       <c r="D40">
-        <v>2.425977045917975</v>
+        <v>2.957275387081737</v>
       </c>
       <c r="E40">
-        <v>2.060588082007357</v>
+        <v>1.000974305187484</v>
       </c>
       <c r="F40">
-        <v>1.099893189025025</v>
+        <v>2.133050092891608</v>
       </c>
       <c r="G40">
-        <v>0.4838874199492125</v>
+        <v>1.606482930593387</v>
       </c>
       <c r="H40">
-        <v>1.874427432925614</v>
+        <v>2.444978945836923</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-1.853083536387885</v>
       </c>
       <c r="C41">
-        <v>1.529444755596487</v>
+        <v>2.060743096760248</v>
       </c>
       <c r="D41">
-        <v>0.9121447328027728</v>
+        <v>-0.1474690440171003</v>
       </c>
       <c r="E41">
-        <v>0.4399673213389548</v>
+        <v>1.473124225205538</v>
       </c>
       <c r="F41">
-        <v>1.404247872993522</v>
+        <v>2.526843383637697</v>
       </c>
       <c r="G41">
-        <v>2.294958572627663</v>
+        <v>2.865510085538972</v>
       </c>
       <c r="H41">
-        <v>1.351753635746064</v>
+        <v>0.01173936477690107</v>
       </c>
       <c r="I41">
-        <v>-0.9190371838720071</v>
+        <v>0.7971074916902978</v>
       </c>
       <c r="J41">
-        <v>0.8948572465434097</v>
+        <v>2.521799915085936</v>
       </c>
       <c r="K41">
-        <v>0.2609860081585538</v>
+        <v>2.888634420078432</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.5312983411637617</v>
       </c>
       <c r="C42">
-        <v>1.243279869116506</v>
+        <v>0.1836660922966331</v>
       </c>
       <c r="D42">
-        <v>1.139942038663974</v>
+        <v>2.173098942530558</v>
       </c>
       <c r="E42">
-        <v>0.8038045850092455</v>
+        <v>1.92640009565342</v>
       </c>
       <c r="F42">
-        <v>2.033898394765984</v>
+        <v>2.604449907677293</v>
       </c>
       <c r="G42">
-        <v>1.025995292904184</v>
+        <v>-0.3140189780649787</v>
       </c>
       <c r="H42">
-        <v>-0.9142922672500051</v>
+        <v>0.8018524083122998</v>
       </c>
       <c r="I42">
-        <v>0.8996163547694209</v>
+        <v>2.526559023311947</v>
       </c>
       <c r="J42">
-        <v>0.2657593129466704</v>
+        <v>2.893407724866548</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-1.059613776819873</v>
       </c>
       <c r="C43">
-        <v>1.031278352291054</v>
+        <v>2.064435256157637</v>
       </c>
       <c r="D43">
-        <v>1.04520702159033</v>
+        <v>2.167802532234504</v>
       </c>
       <c r="E43">
-        <v>2.274889675075911</v>
+        <v>2.84544118798722</v>
       </c>
       <c r="F43">
-        <v>1.263322622337625</v>
+        <v>-0.07669164863153788</v>
       </c>
       <c r="G43">
-        <v>-0.7164286990707185</v>
+        <v>0.9997159764915864</v>
       </c>
       <c r="H43">
-        <v>0.896796573083634</v>
+        <v>2.52373924162616</v>
       </c>
       <c r="I43">
-        <v>0.2629311742618938</v>
+        <v>2.890579586181772</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1.033156903866584</v>
       </c>
       <c r="C44">
-        <v>0.3566656237422166</v>
+        <v>1.479261134386391</v>
       </c>
       <c r="D44">
-        <v>2.253341063722686</v>
+        <v>2.823892576633995</v>
       </c>
       <c r="E44">
-        <v>1.825101146302629</v>
+        <v>0.4850868753334661</v>
       </c>
       <c r="F44">
-        <v>-0.2552416806265259</v>
+        <v>1.460902994935779</v>
       </c>
       <c r="G44">
-        <v>1.317169792939069</v>
+        <v>2.944112461481595</v>
       </c>
       <c r="H44">
-        <v>0.5221846099591119</v>
+        <v>3.14983302187899</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1781,28 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1.122595510644175</v>
       </c>
       <c r="C45">
-        <v>1.602889364552922</v>
+        <v>2.173440877464231</v>
       </c>
       <c r="D45">
-        <v>1.000892001281372</v>
+        <v>-0.3391222696877914</v>
       </c>
       <c r="E45">
-        <v>-0.5659507863850448</v>
+        <v>1.15019388917726</v>
       </c>
       <c r="F45">
-        <v>1.198233809702515</v>
+        <v>2.825176478245041</v>
       </c>
       <c r="G45">
-        <v>0.5242289929063162</v>
+        <v>3.151877404826194</v>
       </c>
       <c r="H45">
-        <v>1.457774923350627</v>
+        <v>-2.471740390448148</v>
       </c>
       <c r="I45">
-        <v>1.075839067977128</v>
-      </c>
-      <c r="J45">
-        <v>0.783523740250601</v>
+        <v>0.8884784691348386</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1810,25 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.570551512911309</v>
       </c>
       <c r="C46">
-        <v>1.418452724799365</v>
+        <v>0.07843845383020209</v>
       </c>
       <c r="D46">
-        <v>-0.3278715420108829</v>
+        <v>1.388273133551422</v>
       </c>
       <c r="E46">
-        <v>1.278443078387155</v>
+        <v>2.905385746929681</v>
       </c>
       <c r="F46">
-        <v>0.6045269380010296</v>
+        <v>3.232175349920908</v>
       </c>
       <c r="G46">
-        <v>1.536757652783848</v>
+        <v>-2.392757661014926</v>
       </c>
       <c r="H46">
-        <v>1.155415543040021</v>
-      </c>
-      <c r="I46">
-        <v>0.8630189302256213</v>
+        <v>0.968054944197732</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1836,22 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>-1.340014270969163</v>
       </c>
       <c r="C47">
-        <v>-1.088131163356408</v>
+        <v>0.6280135122058965</v>
       </c>
       <c r="D47">
-        <v>1.279040933853949</v>
+        <v>2.905983602396475</v>
       </c>
       <c r="E47">
-        <v>0.6053247697151676</v>
+        <v>3.232973181635046</v>
       </c>
       <c r="F47">
-        <v>1.54003372517289</v>
+        <v>-2.389481588625884</v>
       </c>
       <c r="G47">
-        <v>1.157110103177885</v>
-      </c>
-      <c r="H47">
-        <v>0.864715415210469</v>
+        <v>0.9697495043355957</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,92 +1859,74 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1.716144675562305</v>
       </c>
       <c r="C48">
-        <v>1.613772350519951</v>
+        <v>3.240715019062477</v>
       </c>
       <c r="D48">
-        <v>1.00204406918499</v>
+        <v>3.629692481104868</v>
       </c>
       <c r="E48">
-        <v>1.444499037349786</v>
+        <v>-2.485016276448988</v>
       </c>
       <c r="F48">
-        <v>0.5963734264450125</v>
-      </c>
-      <c r="G48">
-        <v>0.1600728497745224</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.409012827602723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1.626942668542526</v>
       </c>
       <c r="C49">
-        <v>0.09700860250711685</v>
+        <v>2.724657014426995</v>
       </c>
       <c r="D49">
-        <v>1.155812549850339</v>
+        <v>-2.773702763948436</v>
       </c>
       <c r="E49">
-        <v>0.82213838118669</v>
-      </c>
-      <c r="F49">
-        <v>0.5527444727723321</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.6347777823444005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>2.627648411919878</v>
       </c>
       <c r="C50">
-        <v>1.036255594506841</v>
+        <v>-2.893259719291934</v>
       </c>
       <c r="D50">
-        <v>0.7071852637048295</v>
-      </c>
-      <c r="E50">
-        <v>0.4524928214104306</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.51982466486254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-3.929515313798774</v>
       </c>
       <c r="C51">
-        <v>0.2754626860235732</v>
-      </c>
-      <c r="D51">
-        <v>-0.1548735412337266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.08810208718128365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>-0.007045088697921642</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>-0.1873605988422895</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
